--- a/deployment/Omaha_Cal_Info_GP02HYPM_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_GP02HYPM_00003.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\GP02HYPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="7380" windowWidth="29700" windowHeight="14412"/>
+    <workbookView xWindow="8100" yWindow="7380" windowWidth="29700" windowHeight="14415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="71">
   <si>
     <t>Ref Des</t>
   </si>
@@ -337,9 +337,6 @@
     </r>
   </si>
   <si>
-    <t>GP02HYPM-GPM01-00-SIOENG000</t>
-  </si>
-  <si>
     <t>50° 04.79' N</t>
   </si>
   <si>
@@ -395,6 +392,12 @@
   </si>
   <si>
     <t>N00251</t>
+  </si>
+  <si>
+    <t>GP02HYPM-RIM01-00-SIOENG000</t>
+  </si>
+  <si>
+    <t>OL000061</t>
   </si>
 </sst>
 </file>
@@ -924,7 +927,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1089,6 +1092,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="200">
     <cellStyle name="Comma 2" xfId="62"/>
@@ -1611,32 +1615,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="17.109375" style="11" customWidth="1"/>
-    <col min="14" max="14" width="17.88671875" style="11" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="12.28515625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="11" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" style="11" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="12" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="56" t="s">
         <v>0</v>
@@ -1672,9 +1676,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="23" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>40</v>
@@ -1693,10 +1697,10 @@
       </c>
       <c r="G2" s="34"/>
       <c r="H2" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
         <v>51</v>
-      </c>
-      <c r="I2" t="s">
-        <v>52</v>
       </c>
       <c r="J2" s="26">
         <v>4219</v>
@@ -1714,51 +1718,51 @@
         <v>-144.803</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E3" s="32"/>
       <c r="F3" s="33"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="M4" s="55"/>
       <c r="N4" s="55"/>
     </row>
-    <row r="5" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E10" s="32"/>
       <c r="F10" s="33"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E11" s="32"/>
       <c r="F11" s="33"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E12" s="32"/>
       <c r="F12" s="33"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E13" s="32"/>
       <c r="F13" s="33"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E14" s="32"/>
       <c r="F14" s="33"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E15" s="32"/>
       <c r="F15" s="33"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E16" s="32"/>
       <c r="F16" s="33"/>
       <c r="G16" s="32"/>
@@ -1778,35 +1782,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A53" sqref="A53"/>
+      <selection pane="bottomRight" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="15" customWidth="1"/>
-    <col min="10" max="13" width="10.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="48.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="15" customWidth="1"/>
+    <col min="10" max="13" width="10.7109375" style="3" customWidth="1"/>
     <col min="14" max="14" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="3"/>
+    <col min="15" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>1</v>
@@ -1815,7 +1819,7 @@
         <v>34</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>2</v>
@@ -1830,7 +1834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -1841,12 +1845,12 @@
       <c r="H2" s="19"/>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>41</v>
@@ -1855,7 +1859,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="51">
         <v>2934</v>
@@ -1870,12 +1874,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>41</v>
@@ -1884,7 +1888,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="37">
         <v>2934</v>
@@ -1897,12 +1901,12 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>41</v>
@@ -1911,7 +1915,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="37">
         <v>2934</v>
@@ -1924,12 +1928,12 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>41</v>
@@ -1938,7 +1942,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="37">
         <v>2934</v>
@@ -1951,12 +1955,12 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>41</v>
@@ -1965,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="37">
         <v>2934</v>
@@ -1980,12 +1984,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>41</v>
@@ -1994,7 +1998,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="37">
         <v>2934</v>
@@ -2009,12 +2013,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>41</v>
@@ -2023,7 +2027,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="37">
         <v>2934</v>
@@ -2038,12 +2042,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>41</v>
@@ -2052,7 +2056,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="37">
         <v>2934</v>
@@ -2067,7 +2071,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="41"/>
       <c r="C11" s="36"/>
@@ -2078,12 +2082,12 @@
       <c r="H11" s="10"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>41</v>
@@ -2092,7 +2096,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="51">
         <v>1105</v>
@@ -2107,12 +2111,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>41</v>
@@ -2121,7 +2125,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="37">
         <v>1105</v>
@@ -2133,7 +2137,7 @@
         <v>-144.803</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="41"/>
       <c r="C14" s="36"/>
@@ -2143,12 +2147,12 @@
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>41</v>
@@ -2157,7 +2161,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" s="53">
         <v>115</v>
@@ -2169,12 +2173,12 @@
         <v>50.079833333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="36" t="s">
         <v>41</v>
@@ -2183,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="54">
         <v>115</v>
@@ -2195,7 +2199,7 @@
         <v>-144.803</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="41"/>
       <c r="C17" s="36"/>
@@ -2205,12 +2209,12 @@
       <c r="G17" s="6"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="35" t="s">
         <v>41</v>
@@ -2219,7 +2223,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" s="53">
         <v>1026</v>
@@ -2231,12 +2235,12 @@
         <v>50.079833333333333</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>41</v>
@@ -2245,7 +2249,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F19" s="54">
         <v>1026</v>
@@ -2257,7 +2261,7 @@
         <v>-144.803</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="41"/>
       <c r="C20" s="36"/>
@@ -2267,12 +2271,12 @@
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
         <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>41</v>
@@ -2281,22 +2285,22 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" t="s">
         <v>55</v>
       </c>
-      <c r="F21" t="s">
-        <v>56</v>
-      </c>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="35" t="s">
         <v>41</v>
@@ -2305,7 +2309,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F23" s="51">
         <v>3284</v>
@@ -2320,12 +2324,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="36" t="s">
         <v>41</v>
@@ -2334,7 +2338,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F24" s="37">
         <v>3284</v>
@@ -2347,12 +2351,12 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="36" t="s">
         <v>41</v>
@@ -2361,7 +2365,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25" s="37">
         <v>3284</v>
@@ -2374,12 +2378,12 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="36" t="s">
         <v>41</v>
@@ -2388,7 +2392,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F26" s="37">
         <v>3284</v>
@@ -2401,12 +2405,12 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="36" t="s">
         <v>41</v>
@@ -2415,7 +2419,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" s="37">
         <v>3284</v>
@@ -2430,12 +2434,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="36" t="s">
         <v>41</v>
@@ -2444,7 +2448,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F28" s="37">
         <v>3284</v>
@@ -2459,12 +2463,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="36" t="s">
         <v>41</v>
@@ -2473,7 +2477,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F29" s="37">
         <v>3284</v>
@@ -2489,12 +2493,12 @@
       </c>
       <c r="J29" s="15"/>
     </row>
-    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="36" t="s">
         <v>41</v>
@@ -2503,7 +2507,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F30" s="37">
         <v>3284</v>
@@ -2519,7 +2523,7 @@
       </c>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="41"/>
       <c r="C31" s="36"/>
@@ -2531,12 +2535,12 @@
       <c r="I31" s="13"/>
       <c r="J31" s="45"/>
     </row>
-    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="35" t="s">
         <v>41</v>
@@ -2545,7 +2549,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F32" s="51">
         <v>1478</v>
@@ -2558,12 +2562,12 @@
       </c>
       <c r="J32" s="45"/>
     </row>
-    <row r="33" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="36" t="s">
         <v>41</v>
@@ -2572,7 +2576,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F33" s="37">
         <v>1478</v>
@@ -2585,7 +2589,7 @@
       </c>
       <c r="J33" s="15"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="41"/>
       <c r="C34" s="36"/>
@@ -2595,12 +2599,12 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="35" t="s">
         <v>41</v>
@@ -2609,7 +2613,7 @@
         <v>3</v>
       </c>
       <c r="E35" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F35" s="53">
         <v>132</v>
@@ -2622,12 +2626,12 @@
       </c>
       <c r="J35" s="15"/>
     </row>
-    <row r="36" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="36" t="s">
         <v>41</v>
@@ -2636,7 +2640,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F36" s="54">
         <v>132</v>
@@ -2649,7 +2653,7 @@
       </c>
       <c r="J36" s="15"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="41"/>
       <c r="C37" s="36"/>
@@ -2659,12 +2663,12 @@
       <c r="G37" s="6"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="35" t="s">
         <v>41</v>
@@ -2673,7 +2677,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38" s="53">
         <v>1115</v>
@@ -2685,12 +2689,12 @@
         <v>50.079833333333333</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="36" t="s">
         <v>41</v>
@@ -2699,7 +2703,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F39" s="54">
         <v>1115</v>
@@ -2711,7 +2715,7 @@
         <v>-144.803</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="36"/>
@@ -2721,12 +2725,12 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="42" t="s">
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>41</v>
@@ -2735,17 +2739,17 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" t="s">
         <v>57</v>
       </c>
-      <c r="F41" t="s">
-        <v>58</v>
-      </c>
       <c r="I41" s="45"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I43" s="49" t="s">
         <v>44</v>
       </c>
@@ -2761,7 +2765,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I44" s="49" t="s">
         <v>45</v>
       </c>
@@ -2777,7 +2781,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
       <c r="C45" s="35"/>
@@ -2785,12 +2789,12 @@
       <c r="H45" s="15"/>
       <c r="I45" s="40"/>
     </row>
-    <row r="46" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="42" t="s">
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" s="35" t="str">
         <f t="shared" ref="C46" si="0">$C$3</f>
@@ -2800,10 +2804,10 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>13</v>
@@ -2812,12 +2816,12 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="42" t="s">
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="36" t="s">
         <v>41</v>
@@ -2826,10 +2830,10 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>14</v>
@@ -2838,12 +2842,12 @@
         <v>50.079833333333333</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="42" t="s">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="36" t="s">
         <v>41</v>
@@ -2852,10 +2856,10 @@
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>15</v>
@@ -2864,7 +2868,7 @@
         <v>-144.803</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="36"/>
@@ -2874,12 +2878,12 @@
       <c r="G49" s="7"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
-        <v>50</v>
+    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="58" t="s">
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>41</v>
@@ -2887,14 +2891,16 @@
       <c r="D50" s="3">
         <v>3</v>
       </c>
-      <c r="E50" s="3"/>
+      <c r="E50" t="s">
+        <v>70</v>
+      </c>
       <c r="F50" s="50">
         <v>11690</v>
       </c>
       <c r="G50" s="44"/>
       <c r="H50" s="44"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="42"/>
       <c r="B51" s="42"/>
       <c r="D51" s="3"/>

--- a/deployment/Omaha_Cal_Info_GP02HYPM_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_GP02HYPM_00003.xlsx
@@ -22,12 +22,12 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="71">
   <si>
     <t>Ref Des</t>
   </si>
@@ -1780,13 +1780,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F56" sqref="F56"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="J32" s="45"/>
     </row>
-    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="J33" s="15"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="41"/>
       <c r="C34" s="36"/>
@@ -2599,7 +2599,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="J35" s="15"/>
     </row>
-    <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>11</v>
       </c>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="J36" s="15"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="41"/>
       <c r="C37" s="36"/>
@@ -2663,7 +2663,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>50.079833333333333</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>-144.803</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="36"/>
@@ -2725,7 +2725,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="42" t="s">
         <v>49</v>
       </c>
@@ -2746,42 +2746,48 @@
       </c>
       <c r="I41" s="45"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I43" s="49" t="s">
+    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="J43" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="K43" s="15">
-        <v>3</v>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="15">
+        <v>3</v>
+      </c>
+      <c r="I43" s="40" t="s">
+        <v>43</v>
       </c>
       <c r="L43" s="39"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40" t="s">
+    </row>
+    <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="15">
+        <v>3</v>
+      </c>
+      <c r="I44" s="40" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I44" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="J44" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="K44" s="15">
-        <v>3</v>
       </c>
       <c r="L44" s="39"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
       <c r="C45" s="35"/>
@@ -2789,7 +2795,7 @@
       <c r="H45" s="15"/>
       <c r="I45" s="40"/>
     </row>
-    <row r="46" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="42" t="s">
         <v>46</v>
       </c>
@@ -2816,7 +2822,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="42" t="s">
         <v>47</v>
       </c>
@@ -2842,7 +2848,7 @@
         <v>50.079833333333333</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="42" t="s">
         <v>47</v>
       </c>

--- a/deployment/Omaha_Cal_Info_GP02HYPM_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_GP02HYPM_00003.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="7380" windowWidth="29700" windowHeight="14415" activeTab="1"/>
+    <workbookView xWindow="10840" yWindow="3800" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -22,7 +17,12 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -725,7 +725,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="200">
+  <cellStyleXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -926,6 +926,8 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1094,7 +1096,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="200">
+  <cellStyles count="202">
     <cellStyle name="Comma 2" xfId="62"/>
     <cellStyle name="Comma 2 2" xfId="63"/>
     <cellStyle name="Comma 2 2 2" xfId="64"/>
@@ -1139,6 +1141,7 @@
     <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
@@ -1173,6 +1176,7 @@
     <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink 2" xfId="8"/>
     <cellStyle name="Hyperlink 2 2" xfId="71"/>
     <cellStyle name="Hyperlink 2 3" xfId="72"/>
@@ -1310,7 +1314,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -1369,7 +1373,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1404,7 +1408,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1615,30 +1619,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" style="11" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" style="11" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" style="11" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="11"/>
+    <col min="1" max="1" width="12.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="17.1640625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" style="11" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="12" customFormat="1" ht="28">
       <c r="A1" s="56" t="s">
         <v>52</v>
       </c>
@@ -1676,7 +1680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="23" customFormat="1">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1695,7 +1699,9 @@
       <c r="F2" s="27">
         <v>0.98472222222222217</v>
       </c>
-      <c r="G2" s="34"/>
+      <c r="G2" s="34">
+        <v>42552</v>
+      </c>
       <c r="H2" s="26" t="s">
         <v>50</v>
       </c>
@@ -1718,51 +1724,51 @@
         <v>-144.803</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="23" customFormat="1">
       <c r="E3" s="32"/>
       <c r="F3" s="33"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" customFormat="1">
       <c r="M4" s="55"/>
       <c r="N4" s="55"/>
     </row>
-    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" customFormat="1"/>
+    <row r="6" spans="1:14" customFormat="1"/>
+    <row r="7" spans="1:14" customFormat="1"/>
+    <row r="8" spans="1:14" customFormat="1"/>
+    <row r="9" spans="1:14" customFormat="1"/>
+    <row r="10" spans="1:14" s="23" customFormat="1">
       <c r="E10" s="32"/>
       <c r="F10" s="33"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="23" customFormat="1">
       <c r="E11" s="32"/>
       <c r="F11" s="33"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="23" customFormat="1">
       <c r="E12" s="32"/>
       <c r="F12" s="33"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="23" customFormat="1">
       <c r="E13" s="32"/>
       <c r="F13" s="33"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="23" customFormat="1">
       <c r="E14" s="32"/>
       <c r="F14" s="33"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="23" customFormat="1">
       <c r="E15" s="32"/>
       <c r="F15" s="33"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="23" customFormat="1">
       <c r="E16" s="32"/>
       <c r="F16" s="33"/>
       <c r="G16" s="32"/>
@@ -1782,30 +1788,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="15" customWidth="1"/>
-    <col min="10" max="13" width="10.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="48.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="15" customWidth="1"/>
+    <col min="10" max="13" width="10.6640625" style="3" customWidth="1"/>
     <col min="14" max="14" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="3"/>
+    <col min="15" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="20" customFormat="1" ht="28">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1834,7 +1840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="20" customFormat="1">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -1845,7 +1851,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1874,7 +1880,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1901,7 +1907,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1928,7 +1934,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1955,7 +1961,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1984,7 +1990,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2013,7 +2019,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2042,7 +2048,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -2071,7 +2077,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="2"/>
       <c r="B11" s="41"/>
       <c r="C11" s="36"/>
@@ -2082,7 +2088,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -2111,7 +2117,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -2137,7 +2143,7 @@
         <v>-144.803</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="2"/>
       <c r="B14" s="41"/>
       <c r="C14" s="36"/>
@@ -2147,7 +2153,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -2173,7 +2179,7 @@
         <v>50.079833333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -2199,7 +2205,7 @@
         <v>-144.803</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="2"/>
       <c r="B17" s="41"/>
       <c r="C17" s="36"/>
@@ -2209,7 +2215,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -2235,7 +2241,7 @@
         <v>50.079833333333333</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
@@ -2261,7 +2267,7 @@
         <v>-144.803</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="2"/>
       <c r="B20" s="41"/>
       <c r="C20" s="36"/>
@@ -2271,7 +2277,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="42" t="s">
         <v>48</v>
       </c>
@@ -2292,10 +2298,10 @@
       </c>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -2324,7 +2330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -2351,7 +2357,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -2378,7 +2384,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -2405,7 +2411,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
@@ -2463,7 +2469,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
@@ -2493,7 +2499,7 @@
       </c>
       <c r="J29" s="15"/>
     </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -2523,7 +2529,7 @@
       </c>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="2"/>
       <c r="B31" s="41"/>
       <c r="C31" s="36"/>
@@ -2535,7 +2541,7 @@
       <c r="I31" s="13"/>
       <c r="J31" s="45"/>
     </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
@@ -2562,7 +2568,7 @@
       </c>
       <c r="J32" s="45"/>
     </row>
-    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
@@ -2589,7 +2595,7 @@
       </c>
       <c r="J33" s="15"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" s="2"/>
       <c r="B34" s="41"/>
       <c r="C34" s="36"/>
@@ -2599,7 +2605,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -2626,7 +2632,7 @@
       </c>
       <c r="J35" s="15"/>
     </row>
-    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="2" t="s">
         <v>11</v>
       </c>
@@ -2653,7 +2659,7 @@
       </c>
       <c r="J36" s="15"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" s="2"/>
       <c r="B37" s="41"/>
       <c r="C37" s="36"/>
@@ -2663,7 +2669,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
@@ -2689,7 +2695,7 @@
         <v>50.079833333333333</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
@@ -2715,7 +2721,7 @@
         <v>-144.803</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="36"/>
@@ -2725,7 +2731,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" s="42" t="s">
         <v>49</v>
       </c>
@@ -2746,10 +2752,10 @@
       </c>
       <c r="I41" s="45"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" s="49" t="s">
         <v>44</v>
       </c>
@@ -2768,7 +2774,7 @@
       <c r="L43" s="39"/>
       <c r="N43" s="15"/>
     </row>
-    <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" s="49" t="s">
         <v>45</v>
       </c>
@@ -2787,7 +2793,7 @@
       <c r="L44" s="39"/>
       <c r="N44" s="15"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
       <c r="C45" s="35"/>
@@ -2795,7 +2801,7 @@
       <c r="H45" s="15"/>
       <c r="I45" s="40"/>
     </row>
-    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" s="42" t="s">
         <v>46</v>
       </c>
@@ -2822,7 +2828,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" s="42" t="s">
         <v>47</v>
       </c>
@@ -2848,7 +2854,7 @@
         <v>50.079833333333333</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" s="42" t="s">
         <v>47</v>
       </c>
@@ -2874,7 +2880,7 @@
         <v>-144.803</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="36"/>
@@ -2884,7 +2890,7 @@
       <c r="G49" s="7"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="58" t="s">
         <v>69</v>
       </c>
@@ -2906,7 +2912,7 @@
       <c r="G50" s="44"/>
       <c r="H50" s="44"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="42"/>
       <c r="B51" s="42"/>
       <c r="D51" s="3"/>
@@ -2918,5 +2924,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/deployment/Omaha_Cal_Info_GP02HYPM_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_GP02HYPM_00003.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27127"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtravis\Desktop\Cal Sheet project\Papa_cal_sheets_RT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10840" yWindow="3800" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="10836" yWindow="3804" windowWidth="25596" windowHeight="16056" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -17,7 +22,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="95">
   <si>
     <t>Ref Des</t>
   </si>
@@ -177,114 +182,6 @@
   </si>
   <si>
     <t>GP02HYPM-MPM01-02-ZPLSGA010</t>
-  </si>
-  <si>
-    <r>
-      <t>GP02HYPM-RI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>01-0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-CTDMOG0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>39</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GP02HYPM-RI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>01-0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-CTDMOG0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>39</t>
-    </r>
   </si>
   <si>
     <r>
@@ -385,9 +282,6 @@
     <t>N00619</t>
   </si>
   <si>
-    <t>37-10258</t>
-  </si>
-  <si>
     <t>A00143</t>
   </si>
   <si>
@@ -398,12 +292,93 @@
   </si>
   <si>
     <t>OL000061</t>
+  </si>
+  <si>
+    <t>GP02HYPM-RIM01-02-CTDMOG039</t>
+  </si>
+  <si>
+    <t>Induction ID</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>CC_wbotc</t>
+  </si>
+  <si>
+    <t>CC_a0</t>
+  </si>
+  <si>
+    <t>CC_a1</t>
+  </si>
+  <si>
+    <t>CC_a2</t>
+  </si>
+  <si>
+    <t>CC_a3</t>
+  </si>
+  <si>
+    <t>CC_ptempa0</t>
+  </si>
+  <si>
+    <t>CC_ptempa1</t>
+  </si>
+  <si>
+    <t>CC_ptempa2</t>
+  </si>
+  <si>
+    <t>CC_ptca0</t>
+  </si>
+  <si>
+    <t>CC_ptca1</t>
+  </si>
+  <si>
+    <t>CC_ptca2</t>
+  </si>
+  <si>
+    <t>CC_ptcb0</t>
+  </si>
+  <si>
+    <t>CC_ptcb1</t>
+  </si>
+  <si>
+    <t>CC_ptcb2</t>
+  </si>
+  <si>
+    <t>CC_pa0</t>
+  </si>
+  <si>
+    <t>CC_pa1</t>
+  </si>
+  <si>
+    <t>CC_pa2</t>
+  </si>
+  <si>
+    <t>CC_g</t>
+  </si>
+  <si>
+    <t>CC_h</t>
+  </si>
+  <si>
+    <t>CC_i</t>
+  </si>
+  <si>
+    <t>CC_j</t>
+  </si>
+  <si>
+    <t>CC_cpcor</t>
+  </si>
+  <si>
+    <t>CC_ctcor</t>
+  </si>
+  <si>
+    <t>37-10257</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -411,7 +386,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,8 +593,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,6 +640,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="55"/>
         <bgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -929,7 +916,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1095,6 +1082,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="8" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="32" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="202">
     <cellStyle name="Comma 2" xfId="62"/>
@@ -1314,7 +1323,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -1373,7 +1382,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1408,7 +1417,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1619,32 +1628,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="11" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.6640625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="17.1640625" style="11" customWidth="1"/>
-    <col min="14" max="14" width="17.83203125" style="11" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="11"/>
+    <col min="13" max="13" width="17.109375" style="11" customWidth="1"/>
+    <col min="14" max="14" width="17.77734375" style="11" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="12" customFormat="1" ht="28">
+    <row r="1" spans="1:14" s="12" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="56" t="s">
         <v>0</v>
@@ -1680,9 +1689,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="23" customFormat="1">
+    <row r="2" spans="1:14" s="23" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>40</v>
@@ -1703,10 +1712,10 @@
         <v>42552</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J2" s="26">
         <v>4219</v>
@@ -1724,51 +1733,51 @@
         <v>-144.803</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="23" customFormat="1">
+    <row r="3" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E3" s="32"/>
       <c r="F3" s="33"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="1:14" customFormat="1">
+    <row r="4" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="M4" s="55"/>
       <c r="N4" s="55"/>
     </row>
-    <row r="5" spans="1:14" customFormat="1"/>
-    <row r="6" spans="1:14" customFormat="1"/>
-    <row r="7" spans="1:14" customFormat="1"/>
-    <row r="8" spans="1:14" customFormat="1"/>
-    <row r="9" spans="1:14" customFormat="1"/>
-    <row r="10" spans="1:14" s="23" customFormat="1">
+    <row r="5" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E10" s="32"/>
       <c r="F10" s="33"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:14" s="23" customFormat="1">
+    <row r="11" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E11" s="32"/>
       <c r="F11" s="33"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:14" s="23" customFormat="1">
+    <row r="12" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E12" s="32"/>
       <c r="F12" s="33"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:14" s="23" customFormat="1">
+    <row r="13" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E13" s="32"/>
       <c r="F13" s="33"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:14" s="23" customFormat="1">
+    <row r="14" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E14" s="32"/>
       <c r="F14" s="33"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:14" s="23" customFormat="1">
+    <row r="15" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E15" s="32"/>
       <c r="F15" s="33"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:14" s="23" customFormat="1">
+    <row r="16" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E16" s="32"/>
       <c r="F16" s="33"/>
       <c r="G16" s="32"/>
@@ -1786,37 +1795,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="48.44140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="15" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="24.5546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" style="15" customWidth="1"/>
     <col min="10" max="13" width="10.6640625" style="3" customWidth="1"/>
     <col min="14" max="14" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="3"/>
+    <col min="15" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="20" customFormat="1" ht="28">
+    <row r="1" spans="1:9" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>1</v>
@@ -1825,7 +1834,7 @@
         <v>34</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>2</v>
@@ -1840,7 +1849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="20" customFormat="1">
+    <row r="2" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -1851,12 +1860,12 @@
       <c r="H2" s="19"/>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>41</v>
@@ -1865,7 +1874,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F3" s="51">
         <v>2934</v>
@@ -1880,12 +1889,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>41</v>
@@ -1894,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4" s="37">
         <v>2934</v>
@@ -1907,12 +1916,12 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>41</v>
@@ -1921,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5" s="37">
         <v>2934</v>
@@ -1934,12 +1943,12 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>41</v>
@@ -1948,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F6" s="37">
         <v>2934</v>
@@ -1961,12 +1970,12 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>41</v>
@@ -1975,7 +1984,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" s="37">
         <v>2934</v>
@@ -1990,12 +1999,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>41</v>
@@ -2004,7 +2013,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="37">
         <v>2934</v>
@@ -2019,12 +2028,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>41</v>
@@ -2033,7 +2042,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="37">
         <v>2934</v>
@@ -2048,12 +2057,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>41</v>
@@ -2062,7 +2071,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F10" s="37">
         <v>2934</v>
@@ -2077,7 +2086,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="41"/>
       <c r="C11" s="36"/>
@@ -2088,12 +2097,12 @@
       <c r="H11" s="10"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>41</v>
@@ -2102,7 +2111,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F12" s="51">
         <v>1105</v>
@@ -2117,12 +2126,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>41</v>
@@ -2131,7 +2140,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F13" s="37">
         <v>1105</v>
@@ -2143,7 +2152,7 @@
         <v>-144.803</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="41"/>
       <c r="C14" s="36"/>
@@ -2153,12 +2162,12 @@
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>41</v>
@@ -2167,7 +2176,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" s="53">
         <v>115</v>
@@ -2179,12 +2188,12 @@
         <v>50.079833333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C16" s="36" t="s">
         <v>41</v>
@@ -2193,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F16" s="54">
         <v>115</v>
@@ -2205,7 +2214,7 @@
         <v>-144.803</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="41"/>
       <c r="C17" s="36"/>
@@ -2215,12 +2224,12 @@
       <c r="G17" s="6"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18" s="35" t="s">
         <v>41</v>
@@ -2229,7 +2238,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F18" s="53">
         <v>1026</v>
@@ -2241,12 +2250,12 @@
         <v>50.079833333333333</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>41</v>
@@ -2255,7 +2264,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F19" s="54">
         <v>1026</v>
@@ -2267,7 +2276,7 @@
         <v>-144.803</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="41"/>
       <c r="C20" s="36"/>
@@ -2277,12 +2286,12 @@
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>41</v>
@@ -2291,22 +2300,22 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C23" s="35" t="s">
         <v>41</v>
@@ -2315,7 +2324,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F23" s="51">
         <v>3284</v>
@@ -2330,12 +2339,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C24" s="36" t="s">
         <v>41</v>
@@ -2344,7 +2353,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F24" s="37">
         <v>3284</v>
@@ -2357,12 +2366,12 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C25" s="36" t="s">
         <v>41</v>
@@ -2371,7 +2380,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F25" s="37">
         <v>3284</v>
@@ -2384,12 +2393,12 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C26" s="36" t="s">
         <v>41</v>
@@ -2398,7 +2407,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F26" s="37">
         <v>3284</v>
@@ -2411,12 +2420,12 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C27" s="36" t="s">
         <v>41</v>
@@ -2425,7 +2434,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F27" s="37">
         <v>3284</v>
@@ -2440,12 +2449,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C28" s="36" t="s">
         <v>41</v>
@@ -2454,7 +2463,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F28" s="37">
         <v>3284</v>
@@ -2469,12 +2478,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C29" s="36" t="s">
         <v>41</v>
@@ -2483,7 +2492,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F29" s="37">
         <v>3284</v>
@@ -2499,12 +2508,12 @@
       </c>
       <c r="J29" s="15"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C30" s="36" t="s">
         <v>41</v>
@@ -2513,7 +2522,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F30" s="37">
         <v>3284</v>
@@ -2529,7 +2538,7 @@
       </c>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="41"/>
       <c r="C31" s="36"/>
@@ -2541,12 +2550,12 @@
       <c r="I31" s="13"/>
       <c r="J31" s="45"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C32" s="35" t="s">
         <v>41</v>
@@ -2555,7 +2564,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" s="51">
         <v>1478</v>
@@ -2568,12 +2577,12 @@
       </c>
       <c r="J32" s="45"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C33" s="36" t="s">
         <v>41</v>
@@ -2582,7 +2591,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F33" s="37">
         <v>1478</v>
@@ -2595,7 +2604,7 @@
       </c>
       <c r="J33" s="15"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="41"/>
       <c r="C34" s="36"/>
@@ -2605,12 +2614,12 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C35" s="35" t="s">
         <v>41</v>
@@ -2619,7 +2628,7 @@
         <v>3</v>
       </c>
       <c r="E35" s="57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F35" s="53">
         <v>132</v>
@@ -2632,12 +2641,12 @@
       </c>
       <c r="J35" s="15"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C36" s="36" t="s">
         <v>41</v>
@@ -2646,7 +2655,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F36" s="54">
         <v>132</v>
@@ -2659,7 +2668,7 @@
       </c>
       <c r="J36" s="15"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="41"/>
       <c r="C37" s="36"/>
@@ -2669,12 +2678,12 @@
       <c r="G37" s="6"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C38" s="35" t="s">
         <v>41</v>
@@ -2683,7 +2692,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="57" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F38" s="53">
         <v>1115</v>
@@ -2695,12 +2704,12 @@
         <v>50.079833333333333</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C39" s="36" t="s">
         <v>41</v>
@@ -2709,7 +2718,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="57" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F39" s="54">
         <v>1115</v>
@@ -2721,7 +2730,7 @@
         <v>-144.803</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="36"/>
@@ -2731,12 +2740,12 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>41</v>
@@ -2745,22 +2754,22 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I41" s="45"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="49" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C43" s="35" t="s">
         <v>41</v>
@@ -2768,18 +2777,20 @@
       <c r="D43" s="15">
         <v>3</v>
       </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="48"/>
       <c r="I43" s="40" t="s">
         <v>43</v>
       </c>
       <c r="L43" s="39"/>
       <c r="N43" s="15"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="49" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C44" s="35" t="s">
         <v>41</v>
@@ -2787,26 +2798,29 @@
       <c r="D44" s="15">
         <v>3</v>
       </c>
+      <c r="G44" s="8"/>
+      <c r="H44" s="46"/>
       <c r="I44" s="40" t="s">
         <v>43</v>
       </c>
       <c r="L44" s="39"/>
       <c r="N44" s="15"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
       <c r="C45" s="35"/>
       <c r="F45" s="39"/>
-      <c r="H45" s="15"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="46"/>
       <c r="I45" s="40"/>
     </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="42" t="s">
-        <v>46</v>
+    <row r="46" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="59" t="s">
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C46" s="35" t="str">
         <f t="shared" ref="C46" si="0">$C$3</f>
@@ -2816,110 +2830,767 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="H46" s="61">
+        <v>39</v>
+      </c>
+      <c r="I46" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="J46" s="62">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="36">
+        <v>3</v>
+      </c>
+      <c r="E47" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G47" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="63">
+        <v>50.079833333333333</v>
+      </c>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="36">
+        <v>3</v>
+      </c>
+      <c r="E48" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="63">
+        <v>-144.803</v>
+      </c>
+      <c r="I48" s="62"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="36">
+        <v>3</v>
+      </c>
+      <c r="E49" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G49" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="61">
+        <v>1450</v>
+      </c>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="36">
+        <v>3</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" s="66">
+        <v>7.8110000000000003E-7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="36">
+        <v>3</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" s="65">
+        <v>-9.0008429999999999E-5</v>
+      </c>
+      <c r="I51" s="64"/>
+    </row>
+    <row r="52" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="36">
+        <v>3</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" s="65">
+        <v>3.0139400000000002E-4</v>
+      </c>
+      <c r="I52" s="64"/>
+    </row>
+    <row r="53" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="36">
+        <v>3</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53" s="65">
+        <v>-3.9371129999999997E-6</v>
+      </c>
+      <c r="I53" s="64"/>
+    </row>
+    <row r="54" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="36">
+        <v>3</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H54" s="65">
+        <v>1.8803630000000001E-7</v>
+      </c>
+      <c r="I54" s="64"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="36">
+        <v>3</v>
+      </c>
+      <c r="E55" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" s="66">
+        <v>-68.360140000000001</v>
+      </c>
+      <c r="I55" s="64"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" s="36">
+        <v>3</v>
+      </c>
+      <c r="E56" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H56" s="66">
+        <v>5.252271E-2</v>
+      </c>
+      <c r="I56" s="64"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="36">
+        <v>3</v>
+      </c>
+      <c r="E57" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H57" s="66">
+        <v>-7.3384369999999999E-7</v>
+      </c>
+      <c r="I57" s="64"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="36">
+        <v>3</v>
+      </c>
+      <c r="E58" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H58" s="66">
+        <v>524914.4</v>
+      </c>
+      <c r="I58" s="64"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="36">
+        <v>3</v>
+      </c>
+      <c r="E59" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H59" s="66">
+        <v>0.4180797</v>
+      </c>
+      <c r="I59" s="64"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="36">
+        <v>3</v>
+      </c>
+      <c r="E60" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H60" s="66">
+        <v>3.3762100000000003E-2</v>
+      </c>
+      <c r="I60" s="64"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="36">
+        <v>3</v>
+      </c>
+      <c r="E61" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H61" s="66">
+        <v>25.318380000000001</v>
+      </c>
+      <c r="I61" s="64"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" s="36">
+        <v>3</v>
+      </c>
+      <c r="E62" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F62" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H62" s="66">
+        <v>-1.725E-3</v>
+      </c>
+      <c r="I62" s="64"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="36">
+        <v>3</v>
+      </c>
+      <c r="E63" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F63" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H63" s="66">
+        <v>0</v>
+      </c>
+      <c r="I63" s="64"/>
+    </row>
+    <row r="64" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="36">
+        <v>3</v>
+      </c>
+      <c r="E64" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H64" s="65">
+        <v>0.14422560000000001</v>
+      </c>
+      <c r="I64" s="64"/>
+    </row>
+    <row r="65" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="36">
+        <v>3</v>
+      </c>
+      <c r="E65" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F65" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H65" s="65">
+        <v>4.5079389999999999E-3</v>
+      </c>
+      <c r="I65" s="64"/>
+    </row>
+    <row r="66" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" s="36">
+        <v>3</v>
+      </c>
+      <c r="E66" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F66" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H66" s="65">
+        <v>-1.3185769999999999E-11</v>
+      </c>
+      <c r="I66" s="64"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="36">
+        <v>3</v>
+      </c>
+      <c r="E67" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F67" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H67" s="66">
+        <v>-0.98128570000000004</v>
+      </c>
+      <c r="I67" s="64"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="36">
+        <v>3</v>
+      </c>
+      <c r="E68" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F68" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H68" s="66">
+        <v>0.15042610000000001</v>
+      </c>
+      <c r="I68" s="64"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" s="36">
+        <v>3</v>
+      </c>
+      <c r="E69" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F69" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H69" s="66">
+        <v>-4.2665619999999999E-4</v>
+      </c>
+      <c r="I69" s="64"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" s="36">
+        <v>3</v>
+      </c>
+      <c r="E70" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F70" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H70" s="66">
+        <v>5.3528469999999999E-5</v>
+      </c>
+      <c r="I70" s="64"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" s="36">
+        <v>3</v>
+      </c>
+      <c r="E71" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F71" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H71" s="66">
+        <v>-9.5700000000000003E-8</v>
+      </c>
+      <c r="I71" s="64"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" s="36">
+        <v>3</v>
+      </c>
+      <c r="E72" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F72" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H72" s="66">
+        <v>3.2499999999999998E-6</v>
+      </c>
+      <c r="I72" s="64"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="41"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="15"/>
+    </row>
+    <row r="74" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" s="3">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
         <v>67</v>
       </c>
-      <c r="F46" t="s">
-        <v>66</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="48">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="5">
-        <v>3</v>
-      </c>
-      <c r="E47" t="s">
-        <v>67</v>
-      </c>
-      <c r="F47" t="s">
-        <v>66</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="46">
-        <v>50.079833333333333</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="5">
-        <v>3</v>
-      </c>
-      <c r="E48" t="s">
-        <v>67</v>
-      </c>
-      <c r="F48" t="s">
-        <v>66</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="46">
-        <v>-144.803</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="41"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="15"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" s="3">
-        <v>3</v>
-      </c>
-      <c r="E50" t="s">
-        <v>70</v>
-      </c>
-      <c r="F50" s="50">
+      <c r="F74" s="50">
         <v>11690</v>
       </c>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="42"/>
-      <c r="B51" s="42"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="42"/>
+      <c r="B75" s="42"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
